--- a/data/lojasAssaiDiff_corrected.xlsx
+++ b/data/lojasAssaiDiff_corrected.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Gestao\Estudos - Web Scraping\Bases e estudos Lojas\Lojas Assaí\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B7600-48B3-43B3-BEEC-5AA99A74C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DDF5F9-4A92-49D3-997E-32951F778078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lojasSite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="780">
   <si>
     <t>value</t>
   </si>
@@ -2373,9 +2373,6 @@
   </si>
   <si>
     <t>Ex Combo Extra</t>
-  </si>
-  <si>
-    <t>Organica</t>
   </si>
 </sst>
 </file>
@@ -2764,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3038,7 @@
         <v>-44.230310000000003</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
@@ -3215,7 +3212,7 @@
         <v>-42.327973999999998</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>93</v>
@@ -3411,7 +3408,7 @@
         <v>-43.477142999999998</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>22</v>
@@ -3533,7 +3530,7 @@
         <v>-46.864382999999997</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -4639,7 +4636,7 @@
         <v>-46.414650000000002</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>13</v>
@@ -4689,7 +4686,7 @@
         <v>-43.287785</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>93</v>
@@ -4861,7 +4858,7 @@
         <v>-49.241225100000001</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>93</v>
@@ -5009,7 +5006,7 @@
         <v>-43.313000000000002</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>22</v>
@@ -5627,7 +5624,7 @@
         <v>-46.406478</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H116" s="1"/>
     </row>
@@ -5651,7 +5648,7 @@
         <v>-54.662539000000002</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>22</v>
@@ -5895,7 +5892,7 @@
         <v>-42.556590399999997</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>93</v>
@@ -6459,7 +6456,7 @@
         <v>-43.345196000000001</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H150" s="1"/>
     </row>
@@ -6777,7 +6774,7 @@
         <v>-59.985703999999998</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H163" s="1"/>
     </row>
@@ -7249,7 +7246,7 @@
         <v>-37.363861999999997</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>29</v>
@@ -7495,7 +7492,7 @@
         <v>-34.879013</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>22</v>
@@ -8693,7 +8690,7 @@
         <v>-56.117170000000002</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>13</v>
@@ -9209,7 +9206,7 @@
         <v>-40.268000000000001</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>29</v>
@@ -10039,7 +10036,7 @@
         <v>-40.289400000000001</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>37</v>
@@ -10113,7 +10110,7 @@
         <v>-51.05688</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>13</v>

--- a/data/lojasAssaiDiff_corrected.xlsx
+++ b/data/lojasAssaiDiff_corrected.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Gestao\Estudos - Web Scraping\Bases e estudos Lojas\Lojas Assaí\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DDF5F9-4A92-49D3-997E-32951F778078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D933DE-7032-4194-BC23-444795120EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lojasSite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2761,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="I208" sqref="I208"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8512,10 +8512,10 @@
         <v>83</v>
       </c>
       <c r="E234" s="2">
-        <v>-22.888847500000001</v>
+        <v>-22.885380999999999</v>
       </c>
       <c r="F234" s="2">
-        <v>-43.222550599999998</v>
+        <v>-43.226627999999998</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>270</v>
